--- a/exponential_smoothing/Demand_Forecasting_Exponential_Smoothing.xlsx
+++ b/exponential_smoothing/Demand_Forecasting_Exponential_Smoothing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlbraves-my.sharepoint.com/personal/justin_watkins_braves_com/Documents/2020_files/Documents/2024/Pricing_BC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_repos\Pricing_Workshop\exponential_smoothing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="14_{697A6CF5-7432-4B1F-AB62-8B7290758FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{877BAEE9-8061-4A10-9AC5-8A4FDD18699C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0204B1B1-FF5F-4EA5-AC88-4E1AA3EB1969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA917802-9CE7-41F9-87E0-0E5256D196C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA917802-9CE7-41F9-87E0-0E5256D196C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -355,13 +355,21 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Use </t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -372,7 +380,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -390,7 +398,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,8 +445,14 @@
     </font>
     <font>
       <b/>
-      <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -446,10 +460,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -958,9 +974,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -985,14 +998,17 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9778,58 +9794,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>31471</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>152540</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BBD57E-58C5-6D02-D0A2-02B2BBEB782D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9570720" y="29405580"/>
-          <a:ext cx="11430991" cy="1615580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>960366</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>61092</xdr:rowOff>
     </xdr:to>
@@ -9847,7 +9819,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10325,35 +10297,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADAEDDE-C86C-4634-9FDB-294684AB3B35}">
   <dimension ref="A1:T181"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomLeft" activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="51" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" style="51" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="51" customWidth="1"/>
+    <col min="6" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" customWidth="1"/>
     <col min="12" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="1.5546875" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="1.5703125" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" customWidth="1"/>
     <col min="21" max="21" width="2" customWidth="1"/>
-    <col min="27" max="27" width="7.88671875" customWidth="1"/>
+    <col min="27" max="27" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
         <v>51</v>
       </c>
@@ -10389,15 +10358,15 @@
         <v>62</v>
       </c>
       <c r="M1" s="94"/>
-      <c r="P1" s="101" t="s">
+      <c r="P1" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="103"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="102"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="60">
         <v>1</v>
       </c>
@@ -10434,7 +10403,7 @@
       <c r="S2" s="72"/>
       <c r="T2" s="73"/>
     </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61">
         <v>2</v>
       </c>
@@ -10473,7 +10442,7 @@
       </c>
       <c r="T3" s="75"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="61">
         <v>3</v>
       </c>
@@ -10507,7 +10476,7 @@
       <c r="P4" s="76"/>
       <c r="T4" s="75"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61">
         <v>4</v>
       </c>
@@ -10541,7 +10510,7 @@
       <c r="P5" s="76"/>
       <c r="T5" s="75"/>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="61">
         <v>5</v>
       </c>
@@ -10581,7 +10550,7 @@
       </c>
       <c r="T6" s="75"/>
     </row>
-    <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <v>6</v>
       </c>
@@ -10605,14 +10574,14 @@
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="23"/>
-      <c r="L7" s="95" t="s">
+      <c r="L7" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="96"/>
+      <c r="M7" s="95"/>
       <c r="P7" s="76"/>
       <c r="T7" s="75"/>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="61">
         <v>7</v>
       </c>
@@ -10637,12 +10606,12 @@
       <c r="I8" s="21"/>
       <c r="J8" s="23"/>
       <c r="K8" s="17"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="98"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="97"/>
       <c r="P8" s="76"/>
       <c r="T8" s="75"/>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="61">
         <v>8</v>
       </c>
@@ -10666,8 +10635,8 @@
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="23"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="98"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="97"/>
       <c r="P9" s="74" t="s">
         <v>59</v>
       </c>
@@ -10676,7 +10645,7 @@
       </c>
       <c r="T9" s="75"/>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="61">
         <v>9</v>
       </c>
@@ -10700,15 +10669,15 @@
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="23"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="100"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
       <c r="P10" s="77"/>
       <c r="Q10" s="78"/>
       <c r="R10" s="78"/>
       <c r="S10" s="78"/>
       <c r="T10" s="79"/>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="61">
         <v>10</v>
       </c>
@@ -10733,7 +10702,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="61">
         <v>11</v>
       </c>
@@ -10757,19 +10726,19 @@
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="23"/>
-      <c r="L12" s="104" t="s">
+      <c r="L12" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="M12" s="105"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="105"/>
-      <c r="R12" s="105"/>
-      <c r="S12" s="105"/>
-      <c r="T12" s="106"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="105"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="61">
         <v>12</v>
       </c>
@@ -10803,7 +10772,7 @@
       <c r="S13" s="72"/>
       <c r="T13" s="73"/>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="62">
         <v>13</v>
       </c>
@@ -10842,7 +10811,7 @@
       </c>
       <c r="T14" s="75"/>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -10882,7 +10851,7 @@
       <c r="L15" s="76"/>
       <c r="T15" s="75"/>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -10928,7 +10897,7 @@
       </c>
       <c r="T16" s="75"/>
     </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -10968,7 +10937,7 @@
       <c r="L17" s="76"/>
       <c r="T17" s="75"/>
     </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -11013,7 +10982,7 @@
       </c>
       <c r="T18" s="75"/>
     </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -11053,7 +11022,7 @@
       <c r="L19" s="76"/>
       <c r="T19" s="75"/>
     </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -11098,7 +11067,7 @@
       </c>
       <c r="T20" s="75"/>
     </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -11145,7 +11114,7 @@
       <c r="S21" s="78"/>
       <c r="T21" s="79"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
         <v>21</v>
       </c>
@@ -11183,7 +11152,7 @@
       </c>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="37">
         <v>22</v>
       </c>
@@ -11221,7 +11190,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="37">
         <v>23</v>
       </c>
@@ -11259,7 +11228,7 @@
       </c>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="37">
         <v>24</v>
       </c>
@@ -11297,7 +11266,7 @@
       </c>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
         <v>25</v>
       </c>
@@ -11335,7 +11304,7 @@
       </c>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="37">
         <v>26</v>
       </c>
@@ -11373,7 +11342,7 @@
       </c>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="37">
         <v>27</v>
       </c>
@@ -11411,7 +11380,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="37">
         <v>28</v>
       </c>
@@ -11449,7 +11418,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
         <v>29</v>
       </c>
@@ -11487,7 +11456,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="37">
         <v>30</v>
       </c>
@@ -11525,7 +11494,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="37">
         <v>31</v>
       </c>
@@ -11563,7 +11532,7 @@
       </c>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="37">
         <v>32</v>
       </c>
@@ -11601,7 +11570,7 @@
       </c>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="37">
         <v>33</v>
       </c>
@@ -11639,7 +11608,7 @@
       </c>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="37">
         <v>34</v>
       </c>
@@ -11677,7 +11646,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="37">
         <v>35</v>
       </c>
@@ -11715,7 +11684,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="37">
         <v>36</v>
       </c>
@@ -11753,7 +11722,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="37">
         <v>37</v>
       </c>
@@ -11791,7 +11760,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="37">
         <v>38</v>
       </c>
@@ -11829,7 +11798,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
         <v>39</v>
       </c>
@@ -11867,7 +11836,7 @@
       </c>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="37">
         <v>40</v>
       </c>
@@ -11905,7 +11874,7 @@
       </c>
       <c r="K41" s="12"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="37">
         <v>41</v>
       </c>
@@ -11943,7 +11912,7 @@
       </c>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="37">
         <v>42</v>
       </c>
@@ -11981,7 +11950,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="37">
         <v>43</v>
       </c>
@@ -12019,7 +11988,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="37">
         <v>44</v>
       </c>
@@ -12057,7 +12026,7 @@
       </c>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="37">
         <v>45</v>
       </c>
@@ -12095,7 +12064,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="37">
         <v>46</v>
       </c>
@@ -12133,7 +12102,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>47</v>
       </c>
@@ -12171,7 +12140,7 @@
       </c>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="37">
         <v>48</v>
       </c>
@@ -12209,7 +12178,7 @@
       </c>
       <c r="K49" s="12"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
         <v>49</v>
       </c>
@@ -12247,7 +12216,7 @@
       </c>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="37">
         <v>50</v>
       </c>
@@ -12285,7 +12254,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
         <v>51</v>
       </c>
@@ -12323,7 +12292,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="37">
         <v>52</v>
       </c>
@@ -12361,7 +12330,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="37">
         <v>53</v>
       </c>
@@ -12399,7 +12368,7 @@
       </c>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="37">
         <v>54</v>
       </c>
@@ -12437,7 +12406,7 @@
       </c>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="37">
         <v>55</v>
       </c>
@@ -12475,7 +12444,7 @@
       </c>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="37">
         <v>56</v>
       </c>
@@ -12513,7 +12482,7 @@
       </c>
       <c r="K57" s="12"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="37">
         <v>57</v>
       </c>
@@ -12551,7 +12520,7 @@
       </c>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="37">
         <v>58</v>
       </c>
@@ -12589,7 +12558,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
         <v>59</v>
       </c>
@@ -12627,7 +12596,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="37">
         <v>60</v>
       </c>
@@ -12665,7 +12634,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="37">
         <v>61</v>
       </c>
@@ -12703,7 +12672,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="37">
         <v>62</v>
       </c>
@@ -12741,7 +12710,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
         <v>63</v>
       </c>
@@ -12779,7 +12748,7 @@
       </c>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="37">
         <v>64</v>
       </c>
@@ -12817,7 +12786,7 @@
       </c>
       <c r="K65" s="12"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="37">
         <v>65</v>
       </c>
@@ -12855,7 +12824,7 @@
       </c>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="37">
         <v>66</v>
       </c>
@@ -12893,7 +12862,7 @@
       </c>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="37">
         <v>67</v>
       </c>
@@ -12931,7 +12900,7 @@
       </c>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="37">
         <v>68</v>
       </c>
@@ -12969,7 +12938,7 @@
       </c>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="37">
         <v>69</v>
       </c>
@@ -13007,7 +12976,7 @@
       </c>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="37">
         <v>70</v>
       </c>
@@ -13045,7 +13014,7 @@
       </c>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="37">
         <v>71</v>
       </c>
@@ -13083,7 +13052,7 @@
       </c>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="37">
         <v>72</v>
       </c>
@@ -13121,7 +13090,7 @@
       </c>
       <c r="K73" s="12"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="37">
         <v>73</v>
       </c>
@@ -13159,7 +13128,7 @@
       </c>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="37">
         <v>74</v>
       </c>
@@ -13197,7 +13166,7 @@
       </c>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="37">
         <v>75</v>
       </c>
@@ -13235,7 +13204,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="37">
         <v>76</v>
       </c>
@@ -13273,7 +13242,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="37">
         <v>77</v>
       </c>
@@ -13311,7 +13280,7 @@
       </c>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="37">
         <v>78</v>
       </c>
@@ -13349,7 +13318,7 @@
       </c>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="37">
         <v>79</v>
       </c>
@@ -13387,7 +13356,7 @@
       </c>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="37">
         <v>80</v>
       </c>
@@ -13425,7 +13394,7 @@
       </c>
       <c r="K81" s="12"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="37">
         <v>81</v>
       </c>
@@ -13463,7 +13432,7 @@
       </c>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="37">
         <v>82</v>
       </c>
@@ -13501,7 +13470,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="37">
         <v>83</v>
       </c>
@@ -13539,7 +13508,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="37">
         <v>84</v>
       </c>
@@ -13577,7 +13546,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="37">
         <v>85</v>
       </c>
@@ -13615,7 +13584,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="37">
         <v>86</v>
       </c>
@@ -13653,7 +13622,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="37">
         <v>87</v>
       </c>
@@ -13691,7 +13660,7 @@
       </c>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="37">
         <v>88</v>
       </c>
@@ -13729,7 +13698,7 @@
       </c>
       <c r="K89" s="12"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="37">
         <v>89</v>
       </c>
@@ -13767,7 +13736,7 @@
       </c>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="37">
         <v>90</v>
       </c>
@@ -13805,7 +13774,7 @@
       </c>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="37">
         <v>91</v>
       </c>
@@ -13843,7 +13812,7 @@
       </c>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="37">
         <v>92</v>
       </c>
@@ -13881,7 +13850,7 @@
       </c>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="37">
         <v>93</v>
       </c>
@@ -13919,7 +13888,7 @@
       </c>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="37">
         <v>94</v>
       </c>
@@ -13957,7 +13926,7 @@
       </c>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="37">
         <v>95</v>
       </c>
@@ -13995,7 +13964,7 @@
       </c>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="37">
         <v>96</v>
       </c>
@@ -14033,7 +14002,7 @@
       </c>
       <c r="K97" s="12"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="37">
         <v>97</v>
       </c>
@@ -14071,7 +14040,7 @@
       </c>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="37">
         <v>98</v>
       </c>
@@ -14109,7 +14078,7 @@
       </c>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="37">
         <v>99</v>
       </c>
@@ -14147,7 +14116,7 @@
       </c>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="37">
         <v>100</v>
       </c>
@@ -14185,7 +14154,7 @@
       </c>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="37">
         <v>101</v>
       </c>
@@ -14223,7 +14192,7 @@
       </c>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="37">
         <v>102</v>
       </c>
@@ -14261,7 +14230,7 @@
       </c>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="37">
         <v>103</v>
       </c>
@@ -14299,7 +14268,7 @@
       </c>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="37">
         <v>104</v>
       </c>
@@ -14337,7 +14306,7 @@
       </c>
       <c r="K105" s="12"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="37">
         <v>105</v>
       </c>
@@ -14375,7 +14344,7 @@
       </c>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="37">
         <v>106</v>
       </c>
@@ -14413,7 +14382,7 @@
       </c>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="37">
         <v>107</v>
       </c>
@@ -14451,7 +14420,7 @@
       </c>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="37">
         <v>108</v>
       </c>
@@ -14489,7 +14458,7 @@
       </c>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="37">
         <v>109</v>
       </c>
@@ -14527,7 +14496,7 @@
       </c>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="37">
         <v>110</v>
       </c>
@@ -14565,7 +14534,7 @@
       </c>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="37">
         <v>111</v>
       </c>
@@ -14603,7 +14572,7 @@
       </c>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="37">
         <v>112</v>
       </c>
@@ -14641,7 +14610,7 @@
       </c>
       <c r="K113" s="12"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="37">
         <v>113</v>
       </c>
@@ -14679,7 +14648,7 @@
       </c>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="37">
         <v>114</v>
       </c>
@@ -14717,7 +14686,7 @@
       </c>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="37">
         <v>115</v>
       </c>
@@ -14755,7 +14724,7 @@
       </c>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="37">
         <v>116</v>
       </c>
@@ -14793,7 +14762,7 @@
       </c>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="37">
         <v>117</v>
       </c>
@@ -14831,7 +14800,7 @@
       </c>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="37">
         <v>118</v>
       </c>
@@ -14869,7 +14838,7 @@
       </c>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="37">
         <v>119</v>
       </c>
@@ -14907,7 +14876,7 @@
       </c>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="37">
         <v>120</v>
       </c>
@@ -14945,7 +14914,7 @@
       </c>
       <c r="K121" s="12"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="61">
         <v>121</v>
       </c>
@@ -14983,7 +14952,7 @@
       </c>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="61">
         <v>122</v>
       </c>
@@ -15021,7 +14990,7 @@
       </c>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="61">
         <v>123</v>
       </c>
@@ -15059,7 +15028,7 @@
       </c>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="61">
         <v>124</v>
       </c>
@@ -15097,7 +15066,7 @@
       </c>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="61">
         <v>125</v>
       </c>
@@ -15135,7 +15104,7 @@
       </c>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="61">
         <v>126</v>
       </c>
@@ -15173,7 +15142,7 @@
       </c>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="61">
         <v>127</v>
       </c>
@@ -15211,7 +15180,7 @@
       </c>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="61">
         <v>128</v>
       </c>
@@ -15249,7 +15218,7 @@
       </c>
       <c r="K129" s="12"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="61">
         <v>129</v>
       </c>
@@ -15287,7 +15256,7 @@
       </c>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="61">
         <v>130</v>
       </c>
@@ -15325,7 +15294,7 @@
       </c>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="61">
         <v>131</v>
       </c>
@@ -15363,7 +15332,7 @@
       </c>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="61">
         <v>132</v>
       </c>
@@ -15401,7 +15370,7 @@
       </c>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="61">
         <v>133</v>
       </c>
@@ -15439,7 +15408,7 @@
       </c>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="61">
         <v>134</v>
       </c>
@@ -15477,7 +15446,7 @@
       </c>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="61">
         <v>135</v>
       </c>
@@ -15515,7 +15484,7 @@
       </c>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="61">
         <v>136</v>
       </c>
@@ -15553,7 +15522,7 @@
       </c>
       <c r="K137" s="12"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="61">
         <v>137</v>
       </c>
@@ -15591,7 +15560,7 @@
       </c>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="61">
         <v>138</v>
       </c>
@@ -15629,7 +15598,7 @@
       </c>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="61">
         <v>139</v>
       </c>
@@ -15667,7 +15636,7 @@
       </c>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="61">
         <v>140</v>
       </c>
@@ -15705,7 +15674,7 @@
       </c>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="61">
         <v>141</v>
       </c>
@@ -15743,7 +15712,7 @@
       </c>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="61">
         <v>142</v>
       </c>
@@ -15781,7 +15750,7 @@
       </c>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="61">
         <v>143</v>
       </c>
@@ -15819,7 +15788,7 @@
       </c>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="61">
         <v>144</v>
       </c>
@@ -15857,7 +15826,7 @@
       </c>
       <c r="K145" s="12"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="61">
         <v>145</v>
       </c>
@@ -15895,7 +15864,7 @@
       </c>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="61">
         <v>146</v>
       </c>
@@ -15933,7 +15902,7 @@
       </c>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="61">
         <v>147</v>
       </c>
@@ -15971,7 +15940,7 @@
       </c>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="61">
         <v>148</v>
       </c>
@@ -16009,7 +15978,7 @@
       </c>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="61">
         <v>149</v>
       </c>
@@ -16047,7 +16016,7 @@
       </c>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="61">
         <v>150</v>
       </c>
@@ -16085,7 +16054,7 @@
       </c>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="61">
         <v>151</v>
       </c>
@@ -16123,7 +16092,7 @@
       </c>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="61">
         <v>152</v>
       </c>
@@ -16161,7 +16130,7 @@
       </c>
       <c r="K153" s="12"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="61">
         <v>153</v>
       </c>
@@ -16199,7 +16168,7 @@
       </c>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="61">
         <v>154</v>
       </c>
@@ -16237,7 +16206,7 @@
       </c>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="61">
         <v>155</v>
       </c>
@@ -16275,7 +16244,7 @@
       </c>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="61">
         <v>156</v>
       </c>
@@ -16313,7 +16282,7 @@
       </c>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="61">
         <v>157</v>
       </c>
@@ -16351,7 +16320,7 @@
       </c>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="61">
         <v>158</v>
       </c>
@@ -16389,7 +16358,7 @@
       </c>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="61">
         <v>159</v>
       </c>
@@ -16427,7 +16396,7 @@
       </c>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="61">
         <v>160</v>
       </c>
@@ -16465,7 +16434,7 @@
       </c>
       <c r="K161" s="12"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="61">
         <v>161</v>
       </c>
@@ -16503,7 +16472,7 @@
       </c>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="61">
         <v>162</v>
       </c>
@@ -16541,7 +16510,7 @@
       </c>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="61">
         <v>163</v>
       </c>
@@ -16579,7 +16548,7 @@
       </c>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="61">
         <v>164</v>
       </c>
@@ -16617,7 +16586,7 @@
       </c>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="61">
         <v>165</v>
       </c>
@@ -16655,7 +16624,7 @@
       </c>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="61">
         <v>166</v>
       </c>
@@ -16693,7 +16662,7 @@
       </c>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="61">
         <v>167</v>
       </c>
@@ -16731,7 +16700,7 @@
       </c>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="63">
         <v>168</v>
       </c>
@@ -16778,7 +16747,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="61">
         <v>169</v>
       </c>
@@ -16805,14 +16774,14 @@
         <v>1</v>
       </c>
       <c r="M170" s="38">
-        <f>I170-O170</f>
+        <f t="shared" ref="M170:M181" si="22">I170-O170</f>
         <v>-3472.3523488039245</v>
       </c>
       <c r="O170" s="39">
         <v>23802</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="61">
         <v>170</v>
       </c>
@@ -16830,7 +16799,7 @@
       <c r="G171" s="25"/>
       <c r="H171" s="21"/>
       <c r="I171" s="65">
-        <f t="shared" ref="I171:I181" si="22">($F$169+L171*$G$169)*H159</f>
+        <f t="shared" ref="I171:I181" si="23">($F$169+L171*$G$169)*H159</f>
         <v>24396.224773941423</v>
       </c>
       <c r="J171" s="26"/>
@@ -16839,14 +16808,14 @@
         <v>2</v>
       </c>
       <c r="M171" s="38">
-        <f>I171-O171</f>
+        <f t="shared" si="22"/>
         <v>129.22477394142334</v>
       </c>
       <c r="O171" s="39">
         <v>24267</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="61">
         <v>171</v>
       </c>
@@ -16864,7 +16833,7 @@
       <c r="G172" s="25"/>
       <c r="H172" s="21"/>
       <c r="I172" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>30444.96540275175</v>
       </c>
       <c r="J172" s="26"/>
@@ -16873,14 +16842,14 @@
         <v>3</v>
       </c>
       <c r="M172" s="38">
-        <f>I172-O172</f>
+        <f t="shared" si="22"/>
         <v>-3170.0345972482501</v>
       </c>
       <c r="O172" s="39">
         <v>33615</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="61">
         <v>172</v>
       </c>
@@ -16898,7 +16867,7 @@
       <c r="G173" s="25"/>
       <c r="H173" s="21"/>
       <c r="I173" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>27900.358757581671</v>
       </c>
       <c r="J173" s="26"/>
@@ -16907,14 +16876,14 @@
         <v>4</v>
       </c>
       <c r="M173" s="38">
-        <f>I173-O173</f>
+        <f t="shared" si="22"/>
         <v>-1326.6412424183291</v>
       </c>
       <c r="O173" s="39">
         <v>29227</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="61">
         <v>173</v>
       </c>
@@ -16932,7 +16901,7 @@
       <c r="G174" s="25"/>
       <c r="H174" s="21"/>
       <c r="I174" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>30769.751621669435</v>
       </c>
       <c r="J174" s="26"/>
@@ -16941,14 +16910,14 @@
         <v>5</v>
       </c>
       <c r="M174" s="38">
-        <f>I174-O174</f>
+        <f t="shared" si="22"/>
         <v>-5438.2483783305652</v>
       </c>
       <c r="O174" s="39">
         <v>36208</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="61">
         <v>174</v>
       </c>
@@ -16966,7 +16935,7 @@
       <c r="G175" s="25"/>
       <c r="H175" s="21"/>
       <c r="I175" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>28090.397353513337</v>
       </c>
       <c r="J175" s="26"/>
@@ -16975,14 +16944,14 @@
         <v>6</v>
       </c>
       <c r="M175" s="38">
-        <f>I175-O175</f>
+        <f t="shared" si="22"/>
         <v>-798.60264648666271</v>
       </c>
       <c r="O175" s="39">
         <v>28889</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="61">
         <v>175</v>
       </c>
@@ -17000,7 +16969,7 @@
       <c r="G176" s="25"/>
       <c r="H176" s="21"/>
       <c r="I176" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>30113.62200573377</v>
       </c>
       <c r="J176" s="26"/>
@@ -17009,14 +16978,14 @@
         <v>7</v>
       </c>
       <c r="M176" s="38">
-        <f>I176-O176</f>
+        <f t="shared" si="22"/>
         <v>2979.6220057337705</v>
       </c>
       <c r="O176" s="39">
         <v>27134</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="61">
         <v>176</v>
       </c>
@@ -17034,7 +17003,7 @@
       <c r="G177" s="25"/>
       <c r="H177" s="21"/>
       <c r="I177" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>32583.68613189445</v>
       </c>
       <c r="J177" s="26"/>
@@ -17043,14 +17012,14 @@
         <v>8</v>
       </c>
       <c r="M177" s="38">
-        <f>I177-O177</f>
+        <f t="shared" si="22"/>
         <v>597.68613189445023</v>
       </c>
       <c r="O177" s="39">
         <v>31986</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="61">
         <v>177</v>
       </c>
@@ -17068,7 +17037,7 @@
       <c r="G178" s="25"/>
       <c r="H178" s="21"/>
       <c r="I178" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>27467.284813949238</v>
       </c>
       <c r="J178" s="26"/>
@@ -17077,14 +17046,14 @@
         <v>9</v>
       </c>
       <c r="M178" s="38">
-        <f>I178-O178</f>
+        <f t="shared" si="22"/>
         <v>4139.284813949238</v>
       </c>
       <c r="O178" s="39">
         <v>23328</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="61">
         <v>178</v>
       </c>
@@ -17102,7 +17071,7 @@
       <c r="G179" s="25"/>
       <c r="H179" s="21"/>
       <c r="I179" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>25051.698455140126</v>
       </c>
       <c r="J179" s="26"/>
@@ -17111,14 +17080,14 @@
         <v>10</v>
       </c>
       <c r="M179" s="38">
-        <f>I179-O179</f>
+        <f t="shared" si="22"/>
         <v>-1550.3015448598744</v>
       </c>
       <c r="O179" s="39">
         <v>26602</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="61">
         <v>179</v>
       </c>
@@ -17136,7 +17105,7 @@
       <c r="G180" s="25"/>
       <c r="H180" s="21"/>
       <c r="I180" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>23810.38179952835</v>
       </c>
       <c r="J180" s="26"/>
@@ -17145,14 +17114,14 @@
         <v>11</v>
       </c>
       <c r="M180" s="38">
-        <f>I180-O180</f>
+        <f t="shared" si="22"/>
         <v>-1800.6182004716502</v>
       </c>
       <c r="O180" s="39">
         <v>25611</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="61">
         <v>180</v>
       </c>
@@ -17170,7 +17139,7 @@
       <c r="G181" s="25"/>
       <c r="H181" s="21"/>
       <c r="I181" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>27044.702532249667</v>
       </c>
       <c r="J181" s="26"/>
@@ -17179,7 +17148,7 @@
         <v>12</v>
       </c>
       <c r="M181" s="41">
-        <f>I181-O181</f>
+        <f t="shared" si="22"/>
         <v>735.70253224966655</v>
       </c>
       <c r="O181" s="42">
@@ -17207,18 +17176,18 @@
       <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="13" width="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2" customWidth="1"/>
     <col min="15" max="15" width="7" style="51" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="51"/>
-    <col min="17" max="17" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" style="51"/>
+    <col min="16" max="16" width="8.85546875" style="51"/>
+    <col min="17" max="17" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17274,7 +17243,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -17327,7 +17296,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -17380,7 +17349,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -17433,7 +17402,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -17486,7 +17455,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -17539,7 +17508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -17592,7 +17561,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -17645,7 +17614,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -17698,7 +17667,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -17751,7 +17720,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -17804,7 +17773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -17857,7 +17826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -17910,7 +17879,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -17963,7 +17932,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -18016,7 +17985,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -18069,7 +18038,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -18122,7 +18091,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -18175,7 +18144,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -18228,7 +18197,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -18281,7 +18250,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O21" s="91">
         <v>20</v>
       </c>
@@ -18295,7 +18264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O22" s="91">
         <v>21</v>
       </c>
@@ -18309,7 +18278,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O23" s="91">
         <v>22</v>
       </c>
@@ -18323,7 +18292,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O24" s="91">
         <v>23</v>
       </c>
@@ -18337,7 +18306,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O25" s="91">
         <v>24</v>
       </c>
@@ -18351,7 +18320,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O26" s="91">
         <v>25</v>
       </c>
@@ -18365,7 +18334,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O27" s="91">
         <v>26</v>
       </c>
@@ -18379,7 +18348,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O28" s="91">
         <v>27</v>
       </c>
@@ -18393,7 +18362,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O29" s="91">
         <v>28</v>
       </c>
@@ -18407,7 +18376,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O30" s="91">
         <v>29</v>
       </c>
@@ -18421,7 +18390,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O31" s="91">
         <v>30</v>
       </c>
@@ -18435,7 +18404,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O32" s="91">
         <v>31</v>
       </c>
@@ -18449,7 +18418,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O33" s="91">
         <v>32</v>
       </c>
@@ -18463,7 +18432,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O34" s="91">
         <v>33</v>
       </c>
@@ -18477,7 +18446,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O35" s="91">
         <v>34</v>
       </c>
@@ -18491,7 +18460,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O36" s="91">
         <v>35</v>
       </c>
@@ -18505,7 +18474,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O37" s="91">
         <v>36</v>
       </c>
@@ -18519,7 +18488,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O38" s="91">
         <v>37</v>
       </c>
@@ -18533,7 +18502,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O39" s="91">
         <v>38</v>
       </c>
@@ -18547,7 +18516,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O40" s="91">
         <v>39</v>
       </c>
@@ -18561,7 +18530,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O41" s="91">
         <v>40</v>
       </c>
@@ -18575,7 +18544,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O42" s="91">
         <v>41</v>
       </c>
@@ -18589,7 +18558,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O43" s="91">
         <v>42</v>
       </c>
@@ -18603,7 +18572,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O44" s="91">
         <v>43</v>
       </c>
@@ -18617,7 +18586,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O45" s="91">
         <v>44</v>
       </c>
@@ -18631,7 +18600,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O46" s="91">
         <v>45</v>
       </c>
@@ -18645,7 +18614,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O47" s="91">
         <v>46</v>
       </c>
@@ -18659,7 +18628,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O48" s="91">
         <v>47</v>
       </c>
@@ -18673,7 +18642,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O49" s="91">
         <v>48</v>
       </c>
@@ -18687,7 +18656,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O50" s="91">
         <v>49</v>
       </c>
@@ -18701,7 +18670,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O51" s="91">
         <v>50</v>
       </c>
@@ -18715,7 +18684,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O52" s="91">
         <v>51</v>
       </c>
@@ -18729,7 +18698,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O53" s="91">
         <v>52</v>
       </c>
@@ -18743,7 +18712,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O54" s="91">
         <v>53</v>
       </c>
@@ -18757,7 +18726,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O55" s="91">
         <v>54</v>
       </c>
@@ -18771,7 +18740,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O56" s="91">
         <v>55</v>
       </c>
@@ -18785,7 +18754,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O57" s="91">
         <v>56</v>
       </c>
@@ -18799,7 +18768,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O58" s="91">
         <v>57</v>
       </c>
@@ -18813,7 +18782,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O59" s="91">
         <v>58</v>
       </c>
@@ -18827,7 +18796,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O60" s="91">
         <v>59</v>
       </c>
@@ -18841,7 +18810,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O61" s="91">
         <v>60</v>
       </c>
@@ -18855,7 +18824,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O62" s="91">
         <v>61</v>
       </c>
@@ -18869,7 +18838,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O63" s="91">
         <v>62</v>
       </c>
@@ -18883,7 +18852,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O64" s="91">
         <v>63</v>
       </c>
@@ -18897,7 +18866,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O65" s="91">
         <v>64</v>
       </c>
@@ -18911,7 +18880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O66" s="91">
         <v>65</v>
       </c>
@@ -18925,7 +18894,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O67" s="91">
         <v>66</v>
       </c>
@@ -18939,7 +18908,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O68" s="91">
         <v>67</v>
       </c>
@@ -18953,7 +18922,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O69" s="91">
         <v>68</v>
       </c>
@@ -18967,7 +18936,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O70" s="91">
         <v>69</v>
       </c>
@@ -18981,7 +18950,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O71" s="91">
         <v>70</v>
       </c>
@@ -18995,7 +18964,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O72" s="91">
         <v>71</v>
       </c>
@@ -19009,7 +18978,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O73" s="91">
         <v>72</v>
       </c>
@@ -19023,7 +18992,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O74" s="91">
         <v>73</v>
       </c>
@@ -19037,7 +19006,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O75" s="91">
         <v>74</v>
       </c>
@@ -19051,7 +19020,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O76" s="91">
         <v>75</v>
       </c>
@@ -19065,7 +19034,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O77" s="91">
         <v>76</v>
       </c>
@@ -19079,7 +19048,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O78" s="91">
         <v>77</v>
       </c>
@@ -19093,7 +19062,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O79" s="91">
         <v>78</v>
       </c>
@@ -19107,7 +19076,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O80" s="91">
         <v>79</v>
       </c>
@@ -19121,7 +19090,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O81" s="91">
         <v>80</v>
       </c>
@@ -19135,7 +19104,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O82" s="91">
         <v>81</v>
       </c>
@@ -19149,7 +19118,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O83" s="91">
         <v>82</v>
       </c>
@@ -19163,7 +19132,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O84" s="91">
         <v>83</v>
       </c>
@@ -19177,7 +19146,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O85" s="91">
         <v>84</v>
       </c>
@@ -19191,7 +19160,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O86" s="91">
         <v>85</v>
       </c>
@@ -19205,7 +19174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O87" s="91">
         <v>86</v>
       </c>
@@ -19219,7 +19188,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O88" s="91">
         <v>87</v>
       </c>
@@ -19233,7 +19202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O89" s="91">
         <v>88</v>
       </c>
@@ -19247,7 +19216,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="90" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O90" s="91">
         <v>89</v>
       </c>
@@ -19261,7 +19230,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O91" s="91">
         <v>90</v>
       </c>
@@ -19275,7 +19244,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O92" s="91">
         <v>91</v>
       </c>
@@ -19289,7 +19258,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O93" s="91">
         <v>92</v>
       </c>
@@ -19303,7 +19272,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O94" s="91">
         <v>93</v>
       </c>
@@ -19317,7 +19286,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="95" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O95" s="91">
         <v>94</v>
       </c>
@@ -19331,7 +19300,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O96" s="91">
         <v>95</v>
       </c>
@@ -19345,7 +19314,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O97" s="91">
         <v>96</v>
       </c>
@@ -19359,7 +19328,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="98" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O98" s="91">
         <v>97</v>
       </c>
@@ -19373,7 +19342,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O99" s="91">
         <v>98</v>
       </c>
@@ -19387,7 +19356,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O100" s="91">
         <v>99</v>
       </c>
@@ -19401,7 +19370,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O101" s="91">
         <v>100</v>
       </c>
@@ -19415,7 +19384,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="102" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O102" s="91">
         <v>101</v>
       </c>
@@ -19429,7 +19398,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O103" s="91">
         <v>102</v>
       </c>
@@ -19443,7 +19412,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O104" s="91">
         <v>103</v>
       </c>
@@ -19457,7 +19426,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O105" s="91">
         <v>104</v>
       </c>
@@ -19471,7 +19440,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="106" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O106" s="91">
         <v>105</v>
       </c>
@@ -19485,7 +19454,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="107" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O107" s="91">
         <v>106</v>
       </c>
@@ -19499,7 +19468,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O108" s="91">
         <v>107</v>
       </c>
@@ -19513,7 +19482,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O109" s="91">
         <v>108</v>
       </c>
@@ -19527,7 +19496,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O110" s="91">
         <v>109</v>
       </c>
@@ -19541,7 +19510,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O111" s="91">
         <v>110</v>
       </c>
@@ -19555,7 +19524,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O112" s="91">
         <v>111</v>
       </c>
@@ -19569,7 +19538,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O113" s="91">
         <v>112</v>
       </c>
@@ -19583,7 +19552,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O114" s="91">
         <v>113</v>
       </c>
@@ -19597,7 +19566,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O115" s="91">
         <v>114</v>
       </c>
@@ -19611,7 +19580,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O116" s="91">
         <v>115</v>
       </c>
@@ -19625,7 +19594,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="117" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O117" s="91">
         <v>116</v>
       </c>
@@ -19639,7 +19608,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O118" s="91">
         <v>117</v>
       </c>
@@ -19653,7 +19622,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O119" s="91">
         <v>118</v>
       </c>
@@ -19667,7 +19636,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="120" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O120" s="91">
         <v>119</v>
       </c>
@@ -19681,7 +19650,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="121" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O121" s="91">
         <v>120</v>
       </c>
@@ -19695,7 +19664,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="122" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O122" s="91">
         <v>121</v>
       </c>
@@ -19709,7 +19678,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O123" s="91">
         <v>122</v>
       </c>
@@ -19723,7 +19692,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="124" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O124" s="91">
         <v>123</v>
       </c>
@@ -19737,7 +19706,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="125" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O125" s="91">
         <v>124</v>
       </c>
@@ -19751,7 +19720,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="126" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="126" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O126" s="91">
         <v>125</v>
       </c>
@@ -19765,7 +19734,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O127" s="91">
         <v>126</v>
       </c>
@@ -19779,7 +19748,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="128" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O128" s="91">
         <v>127</v>
       </c>
@@ -19793,7 +19762,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="129" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O129" s="91">
         <v>128</v>
       </c>
@@ -19807,7 +19776,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="130" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="130" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O130" s="91">
         <v>129</v>
       </c>
@@ -19821,7 +19790,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="131" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="131" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O131" s="91">
         <v>130</v>
       </c>
@@ -19835,7 +19804,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="132" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O132" s="91">
         <v>131</v>
       </c>
@@ -19849,7 +19818,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="133" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O133" s="91">
         <v>132</v>
       </c>
@@ -19863,7 +19832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="134" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="134" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O134" s="91">
         <v>133</v>
       </c>
@@ -19877,7 +19846,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="135" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="135" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O135" s="91">
         <v>134</v>
       </c>
@@ -19891,7 +19860,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="136" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="136" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O136" s="91">
         <v>135</v>
       </c>
@@ -19905,7 +19874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="137" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="137" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O137" s="91">
         <v>136</v>
       </c>
@@ -19919,7 +19888,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="138" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="138" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O138" s="91">
         <v>137</v>
       </c>
@@ -19933,7 +19902,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="139" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O139" s="91">
         <v>138</v>
       </c>
@@ -19947,7 +19916,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="140" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="140" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O140" s="91">
         <v>139</v>
       </c>
@@ -19961,7 +19930,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="141" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="141" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O141" s="91">
         <v>140</v>
       </c>
@@ -19975,7 +19944,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="142" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="142" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O142" s="91">
         <v>141</v>
       </c>
@@ -19989,7 +19958,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="143" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="143" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O143" s="91">
         <v>142</v>
       </c>
@@ -20003,7 +19972,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="144" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="144" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O144" s="91">
         <v>143</v>
       </c>
@@ -20017,7 +19986,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="145" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="145" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O145" s="91">
         <v>144</v>
       </c>
@@ -20031,7 +20000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="146" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="146" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O146" s="91">
         <v>145</v>
       </c>
@@ -20045,7 +20014,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="147" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="147" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O147" s="91">
         <v>146</v>
       </c>
@@ -20059,7 +20028,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="148" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="148" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O148" s="91">
         <v>147</v>
       </c>
@@ -20073,7 +20042,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="149" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O149" s="91">
         <v>148</v>
       </c>
@@ -20087,7 +20056,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="150" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="150" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O150" s="91">
         <v>149</v>
       </c>
@@ -20101,7 +20070,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="151" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="151" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O151" s="91">
         <v>150</v>
       </c>
@@ -20115,7 +20084,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="152" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="152" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O152" s="91">
         <v>151</v>
       </c>
@@ -20129,7 +20098,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="153" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="153" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O153" s="91">
         <v>152</v>
       </c>
@@ -20143,7 +20112,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="154" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="154" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O154" s="91">
         <v>153</v>
       </c>
@@ -20157,7 +20126,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="155" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="155" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O155" s="91">
         <v>154</v>
       </c>
@@ -20171,7 +20140,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="156" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="156" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O156" s="91">
         <v>155</v>
       </c>
@@ -20185,7 +20154,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="157" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="157" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O157" s="91">
         <v>156</v>
       </c>
@@ -20199,7 +20168,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="158" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="158" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O158" s="91">
         <v>157</v>
       </c>
@@ -20213,7 +20182,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="159" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="159" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O159" s="91">
         <v>158</v>
       </c>
@@ -20227,7 +20196,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="160" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="160" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O160" s="91">
         <v>159</v>
       </c>
@@ -20241,7 +20210,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="161" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="161" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O161" s="91">
         <v>160</v>
       </c>
@@ -20255,7 +20224,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="162" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="162" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O162" s="91">
         <v>161</v>
       </c>
@@ -20269,7 +20238,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="163" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="163" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O163" s="91">
         <v>162</v>
       </c>
@@ -20283,7 +20252,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="164" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="164" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O164" s="91">
         <v>163</v>
       </c>
@@ -20297,7 +20266,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="165" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="165" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O165" s="91">
         <v>164</v>
       </c>
@@ -20311,7 +20280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="166" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="166" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O166" s="91">
         <v>165</v>
       </c>
@@ -20325,7 +20294,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="167" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="167" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O167" s="91">
         <v>166</v>
       </c>
@@ -20339,7 +20308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="168" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="168" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O168" s="91">
         <v>167</v>
       </c>
@@ -20353,7 +20322,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="169" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="169" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O169" s="91">
         <v>168</v>
       </c>
@@ -20367,7 +20336,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="170" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="170" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O170" s="91">
         <v>169</v>
       </c>
@@ -20381,7 +20350,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="171" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="171" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O171" s="91">
         <v>170</v>
       </c>
@@ -20395,7 +20364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="172" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="172" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O172" s="91">
         <v>171</v>
       </c>
@@ -20409,7 +20378,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="173" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="173" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O173" s="91">
         <v>172</v>
       </c>
@@ -20423,7 +20392,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="174" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="174" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O174" s="91">
         <v>173</v>
       </c>
@@ -20437,7 +20406,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="175" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="175" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O175" s="91">
         <v>174</v>
       </c>
@@ -20451,7 +20420,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="176" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="176" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O176" s="91">
         <v>175</v>
       </c>
@@ -20465,7 +20434,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="177" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="177" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O177" s="91">
         <v>176</v>
       </c>
@@ -20479,7 +20448,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="178" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="178" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O178" s="91">
         <v>177</v>
       </c>
@@ -20493,7 +20462,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="179" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="179" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O179" s="91">
         <v>178</v>
       </c>
@@ -20507,7 +20476,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="180" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="180" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O180" s="91">
         <v>179</v>
       </c>
@@ -20521,7 +20490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="181" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="181" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O181" s="91">
         <v>180</v>
       </c>

--- a/exponential_smoothing/Demand_Forecasting_Exponential_Smoothing.xlsx
+++ b/exponential_smoothing/Demand_Forecasting_Exponential_Smoothing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_repos\Pricing_Workshop\exponential_smoothing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0204B1B1-FF5F-4EA5-AC88-4E1AA3EB1969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAF94A7-7619-45CE-9688-631F0FD9F09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA917802-9CE7-41F9-87E0-0E5256D196C7}"/>
   </bookViews>
@@ -315,13 +315,7 @@
     <t>Initial Level</t>
   </si>
   <si>
-    <t>F13</t>
-  </si>
-  <si>
     <t>H2:H13</t>
-  </si>
-  <si>
-    <t>G13</t>
   </si>
   <si>
     <t>Initial Values</t>
@@ -388,6 +382,12 @@
       </rPr>
       <t xml:space="preserve"> to optimize α, β, and γ. Initialize at .1. Your objective is to minimize the RMSE</t>
     </r>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>G14</t>
   </si>
 </sst>
 </file>
@@ -974,6 +974,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1006,9 +1009,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10300,7 +10300,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="P33" sqref="P33"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10358,13 +10358,13 @@
         <v>62</v>
       </c>
       <c r="M1" s="94"/>
-      <c r="P1" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="102"/>
+      <c r="P1" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="60">
@@ -10438,7 +10438,7 @@
         <v>71</v>
       </c>
       <c r="Q3" s="69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T3" s="75"/>
     </row>
@@ -10546,7 +10546,7 @@
         <v>72</v>
       </c>
       <c r="Q6" s="70" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="T6" s="75"/>
     </row>
@@ -10574,10 +10574,10 @@
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="23"/>
-      <c r="L7" s="106" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="95"/>
+      <c r="L7" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="96"/>
       <c r="P7" s="76"/>
       <c r="T7" s="75"/>
     </row>
@@ -10606,8 +10606,8 @@
       <c r="I8" s="21"/>
       <c r="J8" s="23"/>
       <c r="K8" s="17"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="98"/>
       <c r="P8" s="76"/>
       <c r="T8" s="75"/>
     </row>
@@ -10635,13 +10635,13 @@
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="23"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="98"/>
       <c r="P9" s="74" t="s">
         <v>59</v>
       </c>
       <c r="Q9" s="70" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="T9" s="75"/>
     </row>
@@ -10669,8 +10669,8 @@
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="23"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="100"/>
       <c r="P10" s="77"/>
       <c r="Q10" s="78"/>
       <c r="R10" s="78"/>
@@ -10726,17 +10726,17 @@
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="23"/>
-      <c r="L12" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="M12" s="104"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="105"/>
+      <c r="L12" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="105"/>
+      <c r="S12" s="105"/>
+      <c r="T12" s="106"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="61">
@@ -10803,11 +10803,11 @@
       <c r="I14" s="46"/>
       <c r="J14" s="49"/>
       <c r="L14" s="74" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M14" s="3"/>
       <c r="P14" s="70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T14" s="75"/>
     </row>
@@ -10889,11 +10889,11 @@
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="74" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M16" s="3"/>
       <c r="P16" s="70" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T16" s="75"/>
     </row>
@@ -10975,10 +10975,10 @@
       </c>
       <c r="K18" s="12"/>
       <c r="L18" s="74" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P18" s="70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T18" s="75"/>
     </row>
@@ -11060,10 +11060,10 @@
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="74" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P20" s="70" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T20" s="75"/>
     </row>
